--- a/pred_ohlcv/54_21/2020-01-21 RDN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 RDN ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>99628.94450000003</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>100056.9588</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>99802.88260000003</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>99802.88260000003</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>102207.8826</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>100066.9178</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>100324.4878</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>94373.10310000001</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>95375.88780000001</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>70483.73570000002</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>70483.73570000002</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>70683.73570000002</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>70483.73570000002</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>63106.33460000002</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>50302.92040000002</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>51055.92050000001</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>19038.17050000001</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>19427.17050000001</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>19039.17050000001</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>15886.29880000002</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>15040.60960000002</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 RDN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 RDN ohlcv.xlsx
@@ -2108,7 +2108,7 @@
         <v>94373.10310000001</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>95375.88780000001</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>70483.73570000002</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>70483.73570000002</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>70683.73570000002</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>70483.73570000002</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>63106.33460000002</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>50302.92040000002</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>51055.92050000001</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>19038.17050000001</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>19427.17050000001</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>19039.17050000001</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
